--- a/Framework/Assets/TestExecution.xlsx
+++ b/Framework/Assets/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sutla\workspace\BSA_COP_Framework\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sutla\Documents\GitHub\Framework\Framework\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>32</v>
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>31</v>
@@ -1671,7 +1671,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>31</v>
@@ -1698,19 +1698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Studio xmlns="859e0caf-af61-465e-819a-861bc4a96314">Consulting Studio #1</Studio>
-    <Methodology xmlns="859e0caf-af61-465e-819a-861bc4a96314">
-      <Value>Agile</Value>
-    </Methodology>
-    <Document_x0020_Type xmlns="859e0caf-af61-465e-819a-861bc4a96314">Test Plan</Document_x0020_Type>
-    <Channel xmlns="859e0caf-af61-465e-819a-861bc4a96314">Tax, Legal and ERS</Channel>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C722E666874F5547BBEC984AE5CD0608" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2389a6dea5aac3060daecbe8a721afb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="859e0caf-af61-465e-819a-861bc4a96314" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020b44c11e0cd6c3288ddbfb468e1726" ns2:_="">
     <xsd:import namespace="859e0caf-af61-465e-819a-861bc4a96314"/>
@@ -1919,6 +1906,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Studio xmlns="859e0caf-af61-465e-819a-861bc4a96314">Consulting Studio #1</Studio>
+    <Methodology xmlns="859e0caf-af61-465e-819a-861bc4a96314">
+      <Value>Agile</Value>
+    </Methodology>
+    <Document_x0020_Type xmlns="859e0caf-af61-465e-819a-861bc4a96314">Test Plan</Document_x0020_Type>
+    <Channel xmlns="859e0caf-af61-465e-819a-861bc4a96314">Tax, Legal and ERS</Channel>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1929,22 +1929,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30517B9F-3712-472A-8B8E-304C9FE82906}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="859e0caf-af61-465e-819a-861bc4a96314"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{511B8052-F2D1-4BE6-A610-CA0B7CA6099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1962,6 +1946,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30517B9F-3712-472A-8B8E-304C9FE82906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="859e0caf-af61-465e-819a-861bc4a96314"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E43F51C0-B067-409D-B6EB-0EB952F701DE}">
   <ds:schemaRefs>
